--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T16:41:15+00:00</t>
+    <t>2023-10-27T17:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T17:23:19+00:00</t>
+    <t>2023-10-30T11:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T11:13:09+00:00</t>
+    <t>2023-10-31T16:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T16:48:54+00:00</t>
+    <t>2023-10-31T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:02:35+00:00</t>
+    <t>2023-10-31T17:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:23:44+00:00</t>
+    <t>2023-10-31T17:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:39:37+00:00</t>
+    <t>2023-10-31T17:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
